--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB1BAA-E362-4F79-8BA4-C3621FA52A96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22455" windowHeight="11175" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData_Procurement" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData_Integration" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData1" sheetId="4" r:id="rId4"/>
+    <sheet name="TestData2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="346">
   <si>
     <t>Create Special Requests requisitions</t>
   </si>
@@ -468,13 +471,598 @@
   </si>
   <si>
     <t>Test Comment</t>
+  </si>
+  <si>
+    <t>Username_OBO</t>
+  </si>
+  <si>
+    <t>BrowseOrder_keyword</t>
+  </si>
+  <si>
+    <t>sr123</t>
+  </si>
+  <si>
+    <t>Requester_data</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>2000035319-Test789</t>
+  </si>
+  <si>
+    <t>Requisition</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>Supplier_State</t>
+  </si>
+  <si>
+    <t>Supplier overview</t>
+  </si>
+  <si>
+    <t>ZIP_code</t>
+  </si>
+  <si>
+    <t>Folder/Doc_supplier</t>
+  </si>
+  <si>
+    <t>ContractType</t>
+  </si>
+  <si>
+    <t>Supplier_contract</t>
+  </si>
+  <si>
+    <t>Primary_category</t>
+  </si>
+  <si>
+    <t>Service_Description</t>
+  </si>
+  <si>
+    <t>Contractstatus_indicator</t>
+  </si>
+  <si>
+    <t>Status_update</t>
+  </si>
+  <si>
+    <t>Create_PR</t>
+  </si>
+  <si>
+    <t>BU_Approval</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Order_Buyer</t>
+  </si>
+  <si>
+    <t>PeopleSoft_PO</t>
+  </si>
+  <si>
+    <t>PO_ref</t>
+  </si>
+  <si>
+    <t>PeopleSoft_ID</t>
+  </si>
+  <si>
+    <t>GL_account</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Last_delivery_days</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Manage line item Options</t>
+  </si>
+  <si>
+    <t>Browse Receipts</t>
+  </si>
+  <si>
+    <t>Browse Budgets</t>
+  </si>
+  <si>
+    <t>Budget Lines</t>
+  </si>
+  <si>
+    <t>Browse order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yellow Mello</t>
+  </si>
+  <si>
+    <t>P1-Supplier ACH email is missing</t>
+  </si>
+  <si>
+    <t>[3397]</t>
+  </si>
+  <si>
+    <t>001 - Corp Expense</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>CTR029451 - Test</t>
+  </si>
+  <si>
+    <t>Parent_Agreement</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>BrowseOrder</t>
+  </si>
+  <si>
+    <t>PRConsolidation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>134256</t>
+  </si>
+  <si>
+    <t>Aamer Naushin</t>
+  </si>
+  <si>
+    <t>Drafted</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>OrderDateInBrowser</t>
+  </si>
+  <si>
+    <t>OrderInBrowser</t>
+  </si>
+  <si>
+    <t>OrderToInBrowser</t>
+  </si>
+  <si>
+    <t>OrderDateToInBrowser</t>
+  </si>
+  <si>
+    <t>ContractDate</t>
+  </si>
+  <si>
+    <t>ContractDateTo</t>
+  </si>
+  <si>
+    <t>PeopleSoftProjectInContract</t>
+  </si>
+  <si>
+    <t>ProjectCodeInContract</t>
+  </si>
+  <si>
+    <t>primaryCategoryInContract</t>
+  </si>
+  <si>
+    <t>11/12/2019</t>
+  </si>
+  <si>
+    <t>Fanniemae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacteristicGroup </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Costcenter/Organisation</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>GORE Aaditi S</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>DELL ULTRASHARP 34</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>PackingSlip</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>budget lines</t>
+  </si>
+  <si>
+    <t>Categoty</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Federal National Mortgage Association</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>110000 - Lns HFI UPB SF No Acvy Clrng</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>BudgetApprover</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Techouts</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Initial Budget</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Revised Budget1</t>
+  </si>
+  <si>
+    <t>Revised Budget2</t>
+  </si>
+  <si>
+    <t>Revised Budget3</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>DeliveryDateTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saraj HAMED</t>
+  </si>
+  <si>
+    <t>CP-Dalla Spend Dashboard</t>
+  </si>
+  <si>
+    <t>SupplierHierarchy</t>
+  </si>
+  <si>
+    <t>RegionsReserved</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Supplier Group</t>
+  </si>
+  <si>
+    <t>BookMarkedSupplier</t>
+  </si>
+  <si>
+    <t>Alerts1</t>
+  </si>
+  <si>
+    <t>PSID</t>
+  </si>
+  <si>
+    <t>Status1</t>
+  </si>
+  <si>
+    <t>ActiveSupplier</t>
+  </si>
+  <si>
+    <t>SupplierCritically</t>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Import Management</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>ImportType</t>
+  </si>
+  <si>
+    <t>Anomalies</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date_To</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Keywords1</t>
+  </si>
+  <si>
+    <t>Deployed</t>
+  </si>
+  <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>AccountCodes</t>
+  </si>
+  <si>
+    <t>All imports</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>15/12/2019</t>
+  </si>
+  <si>
+    <t>Allegis</t>
+  </si>
+  <si>
+    <t>Import Types List</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>EMA-Email</t>
+  </si>
+  <si>
+    <t>Authorisation</t>
+  </si>
+  <si>
+    <t>AUC - [ACCESS] Access to the console (auth_auc_console_view)</t>
+  </si>
+  <si>
+    <t>Allegis_REQ</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>DefaultUpdateStrategy</t>
+  </si>
+  <si>
+    <t>Allow update</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>ReadCommited</t>
+  </si>
+  <si>
+    <t>CorrectionOfAnamoliesScreen</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>xpathRoot</t>
+  </si>
+  <si>
+    <t>FirstLineIndex</t>
+  </si>
+  <si>
+    <t>LastRowsToBeImported</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>FlatFileFormat</t>
+  </si>
+  <si>
+    <t>CSV with semicolon</t>
+  </si>
+  <si>
+    <t>TextEncoding</t>
+  </si>
+  <si>
+    <t>iso-8859-4 - Baltic(ISO)</t>
+  </si>
+  <si>
+    <t>FilesTemplateName</t>
+  </si>
+  <si>
+    <t>page Template</t>
+  </si>
+  <si>
+    <t>ImportedLines</t>
+  </si>
+  <si>
+    <t>ImportedFiles</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>ImportManagement</t>
+  </si>
+  <si>
+    <t>Muthoju1235</t>
+  </si>
+  <si>
+    <t>es\testData\fm.png</t>
+  </si>
+  <si>
+    <t>SupplierRegistration</t>
+  </si>
+  <si>
+    <t>CorporateName</t>
+  </si>
+  <si>
+    <t>Test TIN Supplier</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>EmailOfSupplierRegistrationContact</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword_OBO</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>555-555-555</t>
+  </si>
+  <si>
+    <t>444 Test St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>tester123@fanniemae.com</t>
+  </si>
+  <si>
+    <t>321456987</t>
+  </si>
+  <si>
+    <t>76244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,8 +1135,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF375184"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +1155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4E4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -585,12 +1185,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -638,6 +1249,28 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -699,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,26 +1365,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,23 +1400,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -976,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="CB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" sqref="A1:CG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2183,12 +2782,2328 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="mailto:rhonda_milhouse@fanniemae.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G5" r:id="rId2" display="mailto:rhonda_milhouse@fanniemae.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AW5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AW4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId1" display="mailto:rhonda_milhouse@fanniemae.com"/>
+    <hyperlink ref="G5" r:id="rId2" display="mailto:rhonda_milhouse@fanniemae.com"/>
+    <hyperlink ref="AW5" r:id="rId3"/>
+    <hyperlink ref="AW4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:DB10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="14.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="19.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="7.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="2"/>
+    <col min="39" max="39" width="30.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="19.140625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="19.42578125" style="2" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="19" style="2" customWidth="1"/>
+    <col min="46" max="46" width="13.85546875" style="2" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" style="2" customWidth="1"/>
+    <col min="48" max="48" width="27.42578125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="21.28515625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="26.7109375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="11.140625" style="2" customWidth="1"/>
+    <col min="52" max="53" width="9.140625" style="2"/>
+    <col min="54" max="54" width="16.28515625" style="2" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="2"/>
+    <col min="56" max="56" width="19.7109375" style="2" customWidth="1"/>
+    <col min="57" max="57" width="12.42578125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="13.7109375" style="2" customWidth="1"/>
+    <col min="59" max="59" width="17.140625" style="2" customWidth="1"/>
+    <col min="60" max="60" width="21.28515625" style="2" customWidth="1"/>
+    <col min="61" max="61" width="34.5703125" style="2" customWidth="1"/>
+    <col min="62" max="62" width="34.140625" style="2" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="2"/>
+    <col min="64" max="65" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="70" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="9.140625" style="2"/>
+    <col min="73" max="73" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.140625" style="2"/>
+    <col min="78" max="78" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.5703125" style="2" customWidth="1"/>
+    <col min="88" max="90" width="9.140625" style="2"/>
+    <col min="91" max="91" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="58.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.28515625" style="2" customWidth="1"/>
+    <col min="96" max="96" width="9.140625" style="2"/>
+    <col min="97" max="97" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.140625" style="2"/>
+    <col min="99" max="99" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:106">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD1" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="BI1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="BJ1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="BK1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL1" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM1" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="BN1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="BP1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ1" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="BR1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU1" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="BV1" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW1" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="BX1" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY1" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="BZ1" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="CA1" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="CB1" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="CC1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="CD1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF1" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="CG1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="CH1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CI1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="CK1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="CM1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="CP1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="CR1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CS1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="CT1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="CU1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="CW1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="CX1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="CZ1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="DA1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="DB1" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BT5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BX5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106">
+      <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:106" ht="13.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="CF8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CG8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="CI8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106">
+      <c r="A9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CI9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CN9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CP9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="CQ9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="CR9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CS9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CT9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CU9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CV9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CW9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="CX9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CY9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CZ9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="DB9" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT1" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="BY1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG1" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+    </row>
+    <row r="3" spans="1:85">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+    </row>
+    <row r="4" spans="1:85">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+    </row>
+    <row r="5" spans="1:85">
+      <c r="A5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+    </row>
+    <row r="6" spans="1:85">
+      <c r="A6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="mailto:rhonda_milhouse@fanniemae.com"/>
+    <hyperlink ref="G5" r:id="rId2" display="mailto:rhonda_milhouse@fanniemae.com"/>
+    <hyperlink ref="AW5" r:id="rId3"/>
+    <hyperlink ref="AW4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="2" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22455" windowHeight="11175" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22455" windowHeight="11175" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TestData_Integration" sheetId="3" r:id="rId3"/>
     <sheet name="TestData1" sheetId="4" r:id="rId4"/>
     <sheet name="TestData2" sheetId="5" r:id="rId5"/>
+    <sheet name="TestData_CreateCatalog" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="353">
   <si>
     <t>Create Special Requests requisitions</t>
   </si>
@@ -1056,6 +1057,27 @@
   </si>
   <si>
     <t>76244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Catalog Requisition </t>
+  </si>
+  <si>
+    <t>aaditi_s_gore@fanniemae.com</t>
+  </si>
+  <si>
+    <t>Gore1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aamer Naushin</t>
+  </si>
+  <si>
+    <t>RequesterDeliveryDate</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
+  </si>
+  <si>
+    <t>Approval Workflow for submitted request</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1267,10 +1289,29 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3412,8 +3453,8 @@
       <c r="E3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="2" t="s">
         <v>128</v>
       </c>
@@ -3987,7 +4028,7 @@
   <dimension ref="A1:CG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4957,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -5060,7 +5101,7 @@
       <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>344</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5075,10 +5116,10 @@
       <c r="K2" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>262</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -5096,7 +5137,7 @@
       <c r="R2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5106,4 +5147,142 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>